--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_13_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_13_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3671160.902298904</v>
+        <v>3672921.43260169</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228318</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7604674.192993206</v>
+        <v>7604674.192993207</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C2" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="D2" t="n">
-        <v>263.7138800015061</v>
+        <v>97.26234557100807</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>212.5689651179051</v>
+        <v>263.7138800015063</v>
       </c>
     </row>
     <row r="3">
@@ -749,13 +749,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>116.3879392317513</v>
       </c>
       <c r="V3" t="n">
-        <v>173.3160116481447</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -828,7 +828,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>45.2730454211015</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>113.720967016759</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>232.2791855053266</v>
       </c>
       <c r="G5" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>233.6084191422256</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -977,10 +977,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>69.67777870084849</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>72.4661352302452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1062,7 +1062,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>82.22553247955462</v>
       </c>
       <c r="X7" t="n">
-        <v>162.7079352124036</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54915978824949</v>
+        <v>71.45047077200836</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465031</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348406</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>221.9054839216675</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614507</v>
+        <v>92.83909691614505</v>
       </c>
       <c r="I9" t="n">
-        <v>18.47335059662092</v>
+        <v>20.24979976115235</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092543744329</v>
+        <v>224.0328052099051</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1296,13 +1296,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>50.34571932180144</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>238.6785596856853</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569552</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856542</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016445</v>
+        <v>133.313384547079</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>201.8437228691406</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569552</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701326</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784689</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>28.7518808581223</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856542</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012157</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.184474389244</v>
+        <v>94.30373791808249</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1849,16 +1849,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569552</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784681</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>1.799772605718335</v>
+        <v>1.79977260571659</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856542</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012157</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2134,7 +2134,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T21" t="n">
         <v>188.3046392154443</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703258</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2374,10 +2374,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>143.9002723490398</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2608,10 +2608,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2845,10 +2845,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>104.8913819999782</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576159</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="33">
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>103.8784673763438</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012154</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T34" t="n">
-        <v>91.89996056624796</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="35">
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695517</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>128.5251451036134</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856539</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881277</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>126.6321535627876</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695422</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>219.245038753228</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>573.7617370571243</v>
+        <v>522.1002068716689</v>
       </c>
       <c r="C2" t="n">
-        <v>307.3840804899464</v>
+        <v>255.7225503044908</v>
       </c>
       <c r="D2" t="n">
-        <v>41.00642392276842</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="E2" t="n">
-        <v>41.00642392276842</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356495</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515906</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030601</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4375,7 +4375,7 @@
         <v>1054.855520006025</v>
       </c>
       <c r="Y2" t="n">
-        <v>840.1393936243022</v>
+        <v>788.477863438847</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>503.7220043479542</v>
+        <v>750.7407242111801</v>
       </c>
       <c r="C3" t="n">
-        <v>329.2689750668272</v>
+        <v>576.2876949300531</v>
       </c>
       <c r="D3" t="n">
-        <v>180.334565405576</v>
+        <v>427.3532852688019</v>
       </c>
       <c r="E3" t="n">
-        <v>21.09711040012049</v>
+        <v>268.1158302633464</v>
       </c>
       <c r="F3" t="n">
-        <v>21.09711040012049</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012049</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957468</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>338.8740072302313</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263952</v>
+        <v>529.4746963267552</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290002</v>
+        <v>739.5286634293602</v>
       </c>
       <c r="O3" t="n">
-        <v>904.2569522304914</v>
+        <v>909.46721075609</v>
       </c>
       <c r="P3" t="n">
-        <v>1021.314552263895</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>1054.855520006025</v>
+        <v>918.9560612312482</v>
       </c>
       <c r="V3" t="n">
-        <v>879.7888415735551</v>
+        <v>918.9560612312482</v>
       </c>
       <c r="W3" t="n">
-        <v>879.7888415735551</v>
+        <v>918.9560612312482</v>
       </c>
       <c r="X3" t="n">
-        <v>671.9373413680223</v>
+        <v>918.9560612312482</v>
       </c>
       <c r="Y3" t="n">
-        <v>671.9373413680223</v>
+        <v>918.9560612312482</v>
       </c>
     </row>
     <row r="4">
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>533.7933752329598</v>
+        <v>758.3373915224934</v>
       </c>
       <c r="C4" t="n">
-        <v>364.8571923050529</v>
+        <v>589.4012085945865</v>
       </c>
       <c r="D4" t="n">
-        <v>214.7405528927171</v>
+        <v>439.2845691822508</v>
       </c>
       <c r="E4" t="n">
-        <v>66.82745931032403</v>
+        <v>291.3714755998577</v>
       </c>
       <c r="F4" t="n">
-        <v>21.09711040012049</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="G4" t="n">
-        <v>21.09711040012049</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012049</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287944</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551007</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227044</v>
+        <v>739.1822330227048</v>
       </c>
       <c r="O4" t="n">
-        <v>918.469937207554</v>
+        <v>918.4699372075545</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4515,25 +4515,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>939.9858563527331</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>939.9858563527331</v>
       </c>
       <c r="U4" t="n">
-        <v>788.4778634388466</v>
+        <v>939.9858563527331</v>
       </c>
       <c r="V4" t="n">
-        <v>533.7933752329598</v>
+        <v>939.9858563527331</v>
       </c>
       <c r="W4" t="n">
-        <v>533.7933752329598</v>
+        <v>939.9858563527331</v>
       </c>
       <c r="X4" t="n">
-        <v>533.7933752329598</v>
+        <v>939.9858563527331</v>
       </c>
       <c r="Y4" t="n">
-        <v>533.7933752329598</v>
+        <v>939.9858563527331</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>410.8916005921556</v>
+        <v>788.477863438847</v>
       </c>
       <c r="C5" t="n">
-        <v>410.8916005921556</v>
+        <v>788.477863438847</v>
       </c>
       <c r="D5" t="n">
-        <v>410.8916005921556</v>
+        <v>788.477863438847</v>
       </c>
       <c r="E5" t="n">
-        <v>410.8916005921556</v>
+        <v>788.477863438847</v>
       </c>
       <c r="F5" t="n">
-        <v>403.9460998429521</v>
+        <v>553.8524235344767</v>
       </c>
       <c r="G5" t="n">
-        <v>137.5684432757741</v>
+        <v>287.4747669672986</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.2826908791759</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515904</v>
+        <v>294.5174947515906</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358417</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4594,25 +4594,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>646.8597007358178</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>410.8916005921556</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>410.8916005921556</v>
+        <v>788.477863438847</v>
       </c>
       <c r="X5" t="n">
-        <v>410.8916005921556</v>
+        <v>788.477863438847</v>
       </c>
       <c r="Y5" t="n">
-        <v>410.8916005921556</v>
+        <v>788.477863438847</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>795.1061827985595</v>
+        <v>397.2507180260127</v>
       </c>
       <c r="C6" t="n">
-        <v>620.6531535174325</v>
+        <v>397.2507180260127</v>
       </c>
       <c r="D6" t="n">
-        <v>471.7187438561813</v>
+        <v>397.2507180260127</v>
       </c>
       <c r="E6" t="n">
-        <v>312.4812888507258</v>
+        <v>238.0132630205572</v>
       </c>
       <c r="F6" t="n">
-        <v>165.9467308776107</v>
+        <v>91.47870504744222</v>
       </c>
       <c r="G6" t="n">
-        <v>165.9467308776107</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290001</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557299</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V6" t="n">
-        <v>1036.519636212815</v>
+        <v>819.7034117742824</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.519636212815</v>
+        <v>565.4660550460808</v>
       </c>
       <c r="X6" t="n">
-        <v>1036.519636212815</v>
+        <v>565.4660550460808</v>
       </c>
       <c r="Y6" t="n">
-        <v>963.3215198186276</v>
+        <v>565.4660550460808</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>488.0630263227563</v>
+        <v>355.3743762745875</v>
       </c>
       <c r="C7" t="n">
-        <v>319.1268433948493</v>
+        <v>186.4381933466805</v>
       </c>
       <c r="D7" t="n">
-        <v>169.0102039825136</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="E7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="F7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="G7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
         <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4752,25 +4752,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>848.0684854165361</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>848.0684854165361</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>848.0684854165361</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.855520006025</v>
+        <v>848.0684854165361</v>
       </c>
       <c r="W7" t="n">
-        <v>1054.855520006025</v>
+        <v>765.0123920028445</v>
       </c>
       <c r="X7" t="n">
-        <v>890.5040702965262</v>
+        <v>537.0228411048272</v>
       </c>
       <c r="Y7" t="n">
-        <v>669.711491152996</v>
+        <v>537.0228411048272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1228.613747503048</v>
+        <v>1328.027956378634</v>
       </c>
       <c r="C8" t="n">
-        <v>859.6512305626362</v>
+        <v>959.0654394382225</v>
       </c>
       <c r="D8" t="n">
-        <v>859.6512305626362</v>
+        <v>600.799740831472</v>
       </c>
       <c r="E8" t="n">
-        <v>473.862977964392</v>
+        <v>600.799740831472</v>
       </c>
       <c r="F8" t="n">
-        <v>62.87707317478442</v>
+        <v>189.8138360418645</v>
       </c>
       <c r="G8" t="n">
-        <v>51.21125520685564</v>
+        <v>117.6416433428661</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685564</v>
+        <v>117.6416433428661</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685564</v>
+        <v>51.21125520685571</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467169</v>
+        <v>187.3702251467175</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607419</v>
+        <v>442.1757437607428</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045922</v>
+        <v>795.1862829045936</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995226</v>
+        <v>1219.647962995228</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209583</v>
+        <v>1655.591685209585</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940595</v>
+        <v>2053.905718940598</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550197</v>
+        <v>2359.3565305502</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661163</v>
+        <v>2540.564622661166</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342782</v>
+        <v>2560.562760342786</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342782</v>
+        <v>2435.830015762138</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342782</v>
+        <v>2435.830015762138</v>
       </c>
       <c r="U8" t="n">
-        <v>2336.415806886552</v>
+        <v>2435.830015762138</v>
       </c>
       <c r="V8" t="n">
-        <v>2005.352919542981</v>
+        <v>2104.767128418568</v>
       </c>
       <c r="W8" t="n">
-        <v>2005.352919542981</v>
+        <v>2104.767128418568</v>
       </c>
       <c r="X8" t="n">
-        <v>2005.352919542981</v>
+        <v>2104.767128418568</v>
       </c>
       <c r="Y8" t="n">
-        <v>1615.21358756717</v>
+        <v>1714.627796442756</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010768</v>
+        <v>931.3041138965631</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199498</v>
+        <v>756.8510846154361</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818586986</v>
+        <v>607.9166749541848</v>
       </c>
       <c r="E9" t="n">
-        <v>446.8848268532431</v>
+        <v>448.6792199487294</v>
       </c>
       <c r="F9" t="n">
-        <v>300.3502688801281</v>
+        <v>302.1446619756144</v>
       </c>
       <c r="G9" t="n">
-        <v>163.6480708763162</v>
+        <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>69.87120530445253</v>
+        <v>71.66559839993889</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685564</v>
+        <v>51.21125520685571</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637187</v>
+        <v>113.4887579637189</v>
       </c>
       <c r="K9" t="n">
-        <v>559.9063389572707</v>
+        <v>559.906338957271</v>
       </c>
       <c r="L9" t="n">
-        <v>854.4423223907519</v>
+        <v>854.4423223907525</v>
       </c>
       <c r="M9" t="n">
-        <v>1217.508790865053</v>
+        <v>1271.362276040966</v>
       </c>
       <c r="N9" t="n">
-        <v>1604.593193337622</v>
+        <v>1658.446678513536</v>
       </c>
       <c r="O9" t="n">
-        <v>1936.480003325011</v>
+        <v>1990.333488500925</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.345361789037</v>
+        <v>2237.36884693055</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342782</v>
+        <v>2560.562760342786</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342782</v>
+        <v>2560.562760342786</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251697</v>
+        <v>2424.826280251701</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685346</v>
+        <v>2230.81647768535</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751576</v>
+        <v>2004.520714847062</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519833</v>
+        <v>1769.368606615319</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791632</v>
+        <v>1515.131249887118</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586099</v>
+        <v>1307.279749681585</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821145</v>
+        <v>1099.519450916631</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>220.1474381347626</v>
+        <v>715.9213805686154</v>
       </c>
       <c r="C10" t="n">
-        <v>51.21125520685564</v>
+        <v>546.9851976407085</v>
       </c>
       <c r="D10" t="n">
-        <v>51.21125520685564</v>
+        <v>396.8685582283728</v>
       </c>
       <c r="E10" t="n">
-        <v>51.21125520685564</v>
+        <v>248.9554646459796</v>
       </c>
       <c r="F10" t="n">
-        <v>51.21125520685564</v>
+        <v>102.0655171480693</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685564</v>
+        <v>102.0655171480693</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685564</v>
+        <v>102.0655171480693</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685564</v>
+        <v>51.21125520685571</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380143</v>
+        <v>76.63468308380158</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676567</v>
+        <v>248.2500215676569</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368918</v>
+        <v>523.3850043368923</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904033</v>
+        <v>823.8653899904039</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101612</v>
+        <v>1122.635640101613</v>
       </c>
       <c r="O10" t="n">
         <v>1382.582027931091</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616499</v>
+        <v>1581.4903876165</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477362</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477362</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477362</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477362</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="U10" t="n">
-        <v>1394.679691249397</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="V10" t="n">
-        <v>1139.99520304351</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="W10" t="n">
-        <v>850.5780330065497</v>
+        <v>1346.351975440403</v>
       </c>
       <c r="X10" t="n">
-        <v>622.5884821085324</v>
+        <v>1118.362424542385</v>
       </c>
       <c r="Y10" t="n">
-        <v>401.7959029650023</v>
+        <v>897.5698453988551</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192585</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273895</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803936</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.155464951614</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167372</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998425</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998425</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O12" t="n">
         <v>1859.536823237711</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>631.7012443408901</v>
+        <v>782.841029837709</v>
       </c>
       <c r="C13" t="n">
-        <v>631.7012443408901</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408901</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408901</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429798</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578599</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000581</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2245.257395441675</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258107</v>
+        <v>2025.655930464616</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602305</v>
+        <v>1736.580703808814</v>
       </c>
       <c r="V13" t="n">
-        <v>1551.549009249637</v>
+        <v>1481.896215602927</v>
       </c>
       <c r="W13" t="n">
-        <v>1262.131839212677</v>
+        <v>1192.479045565966</v>
       </c>
       <c r="X13" t="n">
-        <v>1034.14228831466</v>
+        <v>964.4894946679487</v>
       </c>
       <c r="Y13" t="n">
-        <v>813.3497091711297</v>
+        <v>964.4894946679487</v>
       </c>
     </row>
     <row r="14">
@@ -5272,46 +5272,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756264</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468469</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L15" t="n">
-        <v>680.0291294438182</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438182</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998425</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,52 +5412,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.853600740073</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429798</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429798</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429798</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429798</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578599</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
@@ -5469,19 +5469,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.28419561186</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138426</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703127</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5494,70 +5494,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756264</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468469</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962605</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589157</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143763</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,52 +5649,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.853600740073</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121663</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121663</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121663</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121663</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270463</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000581</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
@@ -5712,13 +5712,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.28419561186</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138426</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703127</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,40 +5764,40 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756264</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>409.1360811687906</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L21" t="n">
-        <v>904.461687384549</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1501.840175011101</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400703</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121634</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121634</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121634</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121634</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138402</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.50206557031</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5980,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6022,7 +6022,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123002</v>
@@ -6080,7 +6080,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>551.354624631591</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2234.563569379087</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2014.962104402028</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1725.886877746226</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1471.202389540339</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1181.785219503378</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>953.7956686053609</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>733.0030894618308</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6256,7 +6256,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6265,10 +6265,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6317,7 +6317,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6457,55 +6457,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6551,16 +6551,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6600,25 +6600,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>366.9636532421608</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>199.7675539570408</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168608</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6727,25 +6727,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6791,7 +6791,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400744</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400744</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>408.9258559154847</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330918</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330918</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T34" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U34" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V34" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W34" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X34" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138439</v>
       </c>
       <c r="Y34" t="n">
-        <v>889.3209912987577</v>
+        <v>695.502065570314</v>
       </c>
     </row>
     <row r="35">
@@ -6940,22 +6940,22 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7025,10 +7025,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7119,19 +7119,19 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
         <v>1202.091371290588</v>
@@ -7159,58 +7159,58 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
         <v>3467.980956852888</v>
@@ -7219,7 +7219,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7265,7 +7265,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>762.5477693179116</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>762.5477693179116</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>762.5477693179116</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>614.6346757355186</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429798</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578599</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000581</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235167</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258108</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602306</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396419</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359459</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179116</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7405,10 +7405,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7432,28 +7432,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,28 +7484,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7596,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7627,70 +7627,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
@@ -7739,7 +7739,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>847.644273983533</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711973</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888042</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7833,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>2157.887856924458</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1936.428221820188</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1647.011051783227</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>97.32166909127264</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>92.05878169167801</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.262887399594113</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>97.32166909127268</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,7 +8540,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>54.39745977364896</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>264.4747475094962</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348511</v>
+        <v>20.98618304348504</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8707,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -10129,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -11080,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>-8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012157</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>47.71290145456553</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>50.29392045468725</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405054</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>191.8807364711616</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.4949402405054</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194309</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>37.12601365260483</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,13 +24849,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>35.40333084624569</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>44.73700564186842</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856539</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>125.5054897610403</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819372</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986277</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>16.89590291931768</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012154</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,16 +25836,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26073,16 +26073,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>32.89260457059996</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>653646.5512971651</v>
+        <v>653646.551297165</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>653646.5512971651</v>
+        <v>653646.551297165</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>653646.551297165</v>
+        <v>653646.5512971651</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>653646.551297165</v>
+        <v>653646.5512971651</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>653646.5512971651</v>
+        <v>653646.551297165</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>653646.5512971651</v>
+        <v>653646.551297165</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710692</v>
+        <v>779989.6813710695</v>
       </c>
       <c r="C2" t="n">
         <v>779989.6813710696</v>
@@ -26322,16 +26322,16 @@
         <v>779989.6813710687</v>
       </c>
       <c r="E2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="F2" t="n">
         <v>766789.2697055056</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>766789.2697055063</v>
+      </c>
+      <c r="H2" t="n">
         <v>766789.2697055062</v>
-      </c>
-      <c r="G2" t="n">
-        <v>766789.2697055062</v>
-      </c>
-      <c r="H2" t="n">
-        <v>766789.269705506</v>
       </c>
       <c r="I2" t="n">
         <v>766789.2697055058</v>
@@ -26340,22 +26340,22 @@
         <v>766789.2697055058</v>
       </c>
       <c r="K2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.269705506</v>
       </c>
       <c r="L2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="M2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="N2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="O2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="O2" t="n">
-        <v>766789.2697055056</v>
-      </c>
       <c r="P2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.269705506</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580787</v>
+        <v>390680.0076580794</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606931</v>
+        <v>507909.2320606932</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,22 +26386,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6.34392790743732e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911395</v>
+        <v>68999.1544191141</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101751</v>
+        <v>95270.2377910178</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.975695469</v>
+        <v>132717.9756954689</v>
       </c>
       <c r="N3" t="n">
-        <v>1.039422516311918e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247648.5670423891</v>
+        <v>247648.567042389</v>
       </c>
       <c r="C4" t="n">
         <v>247648.567042389</v>
       </c>
       <c r="D4" t="n">
-        <v>135650.8557716746</v>
+        <v>135650.8557716744</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744439</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744491</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744415</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744366</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.25639174434</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744322</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744409</v>
       </c>
       <c r="M4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744409</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744302</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744366</v>
+        <v>8727.256391744282</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567895</v>
+        <v>92902.867575679</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-210794.6694667792</v>
+        <v>-210794.6694667789</v>
       </c>
       <c r="C6" t="n">
-        <v>469293.3111244145</v>
+        <v>469293.3111244143</v>
       </c>
       <c r="D6" t="n">
-        <v>160755.9503656364</v>
+        <v>160755.9503656359</v>
       </c>
       <c r="E6" t="n">
-        <v>148682.872174804</v>
+        <v>148995.5135037256</v>
       </c>
       <c r="F6" t="n">
-        <v>656592.1042354977</v>
+        <v>656904.7455644188</v>
       </c>
       <c r="G6" t="n">
-        <v>656592.1042354978</v>
+        <v>656904.7455644193</v>
       </c>
       <c r="H6" t="n">
-        <v>656592.1042354977</v>
+        <v>656904.7455644192</v>
       </c>
       <c r="I6" t="n">
-        <v>656592.1042354968</v>
+        <v>656904.745564419</v>
       </c>
       <c r="J6" t="n">
-        <v>587592.9498163835</v>
+        <v>587905.5911453047</v>
       </c>
       <c r="K6" t="n">
-        <v>656592.1042354973</v>
+        <v>656904.7455644191</v>
       </c>
       <c r="L6" t="n">
-        <v>561321.8664444799</v>
+        <v>561634.5077734011</v>
       </c>
       <c r="M6" t="n">
-        <v>523874.1285400285</v>
+        <v>524186.7698689498</v>
       </c>
       <c r="N6" t="n">
-        <v>656592.1042354973</v>
+        <v>656904.7455644191</v>
       </c>
       <c r="O6" t="n">
-        <v>656592.1042354973</v>
+        <v>656904.7455644188</v>
       </c>
       <c r="P6" t="n">
-        <v>656592.1042354975</v>
+        <v>656904.7455644191</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26715,19 +26715,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.318586784683342e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26740,22 +26740,22 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627827</v>
+        <v>933.7024595627832</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856955</v>
+        <v>640.1406900856964</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26816,7 +26816,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26831,7 +26831,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,19 +26931,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.575415566185915e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933044</v>
+        <v>319.6474457933049</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788906</v>
+        <v>434.273040778891</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841894</v>
+        <v>376.4268100841901</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139524</v>
+        <v>532.5675980139522</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,16 +27032,16 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841891</v>
+        <v>376.4268100841899</v>
       </c>
       <c r="M4" t="n">
         <v>532.5675980139524</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.575415566185915e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841894</v>
+        <v>376.4268100841901</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139524</v>
+        <v>532.5675980139522</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619744</v>
+        <v>119.0199616619743</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695014</v>
+        <v>101.5590117695013</v>
       </c>
       <c r="D2" t="n">
-        <v>90.96916161917682</v>
+        <v>257.4206960496749</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27399,7 +27399,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>173.6689735381485</v>
+        <v>122.5240586545473</v>
       </c>
     </row>
     <row r="3">
@@ -27469,13 +27469,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>43.92180400150558</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
@@ -27514,16 +27514,16 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>109.4665482718034</v>
       </c>
       <c r="V3" t="n">
-        <v>59.48457550128055</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27548,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>100.1480026018297</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
@@ -27557,7 +27557,7 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>15.07219909888208</v>
@@ -27587,16 +27587,16 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>90.99819722683476</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117135</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>174.5968602363849</v>
       </c>
       <c r="G5" t="n">
-        <v>149.1202946442039</v>
+        <v>149.1202946442038</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776173</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>94.14383932790929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590676</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27697,10 +27697,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27709,13 +27709,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>66.34494088557496</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -27754,16 +27754,16 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>133.2165605470591</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27782,7 +27782,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,7 +27797,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27824,7 +27824,7 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>223.2143458795659</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>204.2974658570364</v>
       </c>
       <c r="X7" t="n">
-        <v>63.00172017663351</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>340.0986890162411</v>
       </c>
       <c r="H8" t="n">
         <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465039</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348407</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>29.1398827680182</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27952,7 +27952,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.776449164531467</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27988,7 +27988,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.776449164527776</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28016,13 +28016,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3072536117062</v>
@@ -28031,7 +28031,7 @@
         <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430995</v>
+        <v>54.47053042129802</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640954</v>
+        <v>101.5869591640953</v>
       </c>
       <c r="S10" t="n">
         <v>194.6738502503845</v>
@@ -28067,10 +28067,10 @@
         <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
-        <v>47.54863008461905</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28326,19 +28326,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>2.339447910096e-12</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28569,19 +28569,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,13 +28614,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28629,7 +28629,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.301146266375361e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1.285915741704983e-12</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,13 +28851,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29049,13 +29049,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29088,22 +29088,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>8.451342307972513e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>1.299278145389897e-13</v>
       </c>
     </row>
     <row r="35">
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.299278145389897e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30516,7 +30516,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30696,25 +30696,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30747,22 +30747,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>1.092834328777952e-12</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31314,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31363,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31381,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885556</v>
+        <v>3.753577726885558</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546671</v>
+        <v>38.44132789546673</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157555</v>
+        <v>144.7098053157556</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972532</v>
+        <v>318.5802175972534</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763189</v>
+        <v>477.4691627763192</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354929</v>
+        <v>592.3427171354932</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359938</v>
+        <v>659.0954050359942</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525074</v>
+        <v>669.7602577525079</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307891</v>
+        <v>632.4356192307896</v>
       </c>
       <c r="P8" t="n">
-        <v>539.769169098302</v>
+        <v>539.7691690983022</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542128</v>
+        <v>405.3441667542131</v>
       </c>
       <c r="R8" t="n">
-        <v>235.785676886475</v>
+        <v>235.7856768864751</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140468</v>
+        <v>85.53465245140474</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944153</v>
+        <v>16.43128649944154</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508444</v>
+        <v>0.3002862181508446</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436929</v>
+        <v>2.00834113943693</v>
       </c>
       <c r="H9" t="n">
-        <v>19.3963473203514</v>
+        <v>19.39634732035141</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026269</v>
+        <v>69.14683309026273</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079425</v>
+        <v>189.7441951079426</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502167</v>
+        <v>324.3030514502169</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571279</v>
+        <v>436.0654741571282</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617165</v>
+        <v>508.8678404617168</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152213</v>
+        <v>522.3360580152216</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519082</v>
+        <v>477.8354464519085</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947588</v>
+        <v>383.5050724947591</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463701</v>
+        <v>256.3629847463703</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204788</v>
+        <v>124.6933209204789</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366398</v>
+        <v>37.30405581366401</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133935</v>
+        <v>8.095024154133938</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321277065419033</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752559</v>
+        <v>1.68372574675256</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840003</v>
+        <v>14.96985254840004</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415878</v>
+        <v>50.63422518415882</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954059</v>
+        <v>119.039410295406</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772518</v>
+        <v>195.6183185772519</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490123</v>
+        <v>250.3240987490124</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023124</v>
+        <v>263.9316641023126</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462349</v>
+        <v>257.6559590462351</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046254</v>
+        <v>237.9869810046255</v>
       </c>
       <c r="P10" t="n">
-        <v>203.638975770873</v>
+        <v>203.6389757708731</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939802</v>
+        <v>140.9890713939803</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307412</v>
+        <v>75.70643221307417</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658776</v>
+        <v>29.34274778658778</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942749</v>
+        <v>7.194100917942754</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650331</v>
+        <v>0.09183958618650337</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>377.6350660745962</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437241</v>
+        <v>303.4297552732299</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485289</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422584</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L15" t="n">
-        <v>242.2322097768149</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422584</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L18" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565776</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,46 +32387,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>305.187676947252</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L21" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,46 +32624,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33037,10 +33037,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33271,19 +33271,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>465.7451325200306</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33511,10 +33511,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33745,13 +33745,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33985,10 +33985,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34213,7 +34213,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34225,10 +34225,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>309.9424824173362</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34371,7 +34371,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.544175081759</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34459,10 +34459,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34783,7 +34783,7 @@
         <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>245.5483596572289</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34792,13 +34792,13 @@
         <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>263.7138800015061</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>33.87976539609053</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35032,10 +35032,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>215.5616691250133</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>125.9385470877691</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.534313070567</v>
+        <v>137.5343130705671</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313384</v>
+        <v>257.3793117313386</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655056</v>
+        <v>356.576302165506</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087211</v>
+        <v>428.7491718087215</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559165</v>
+        <v>440.347194155917</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091024</v>
+        <v>402.3374078091028</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430324</v>
+        <v>308.5361733430327</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797634</v>
+        <v>183.0384768797636</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234286</v>
+        <v>20.20013907234301</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127582</v>
+        <v>62.90656844127594</v>
       </c>
       <c r="K9" t="n">
-        <v>450.9268494884363</v>
+        <v>450.9268494884365</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772538</v>
+        <v>297.511094377254</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396982</v>
+        <v>421.1312663133475</v>
       </c>
       <c r="N9" t="n">
-        <v>390.994345931888</v>
+        <v>390.9943459318883</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074638</v>
+        <v>335.2392020074641</v>
       </c>
       <c r="P9" t="n">
-        <v>514.0054125899248</v>
+        <v>249.5306650804288</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603486</v>
+        <v>326.4584983961979</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873313</v>
+        <v>25.6802301787332</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513689</v>
+        <v>173.348826751369</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093284</v>
+        <v>277.9141240093286</v>
       </c>
       <c r="M10" t="n">
-        <v>303.515541064153</v>
+        <v>303.5155410641532</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254635</v>
+        <v>301.7881314254637</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186651</v>
+        <v>262.5721089186652</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357665</v>
+        <v>200.9175350357666</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228578</v>
+        <v>54.82702814228587</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.587454168382</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774872</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>235.5010321525779</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992796</v>
+        <v>160.8335108287855</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625074</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789205</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295343</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35576,13 +35576,13 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396418</v>
+        <v>285.7087110396415</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902944</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678994</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L15" t="n">
-        <v>103.6778299969407</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992796</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625074</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789205</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295343</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35813,13 +35813,13 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902944</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678994</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121332</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295343</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36050,13 +36050,13 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902944</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>167.3462379728931</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36685,10 +36685,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36849,7 +36849,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683826</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -36919,19 +36919,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>334.4034204366973</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37159,10 +37159,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295349</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096351</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37393,13 +37393,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37633,10 +37633,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295349</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37800,10 +37800,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37873,10 +37873,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>167.3462379728918</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367785</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38107,10 +38107,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
